--- a/Data/FieldNotebook-dataonly.xlsx
+++ b/Data/FieldNotebook-dataonly.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\samoa\WATERSHED_ANALYSIS\FAGAALU\MasterDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Fagaalu-Sediment-Flux\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
   <si>
     <t>LBJ Bridge Staff Gauge</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>Condition</t>
-  </si>
-  <si>
-    <t>Stage (cm)</t>
   </si>
   <si>
     <t>Q (L/sec)</t>
@@ -227,6 +224,9 @@
   <si>
     <t>OrangePeel avg(3),muddy</t>
   </si>
+  <si>
+    <t>RefGageHeight(cm)</t>
+  </si>
 </sst>
 </file>
 
@@ -273,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,11 +281,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -301,155 +310,15 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1014,13 +883,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:T178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B151" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J157" sqref="J157"/>
+      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,16 +916,16 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1225,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,7 +1108,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,7 +1133,7 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,7 +1510,7 @@
         <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1655,10 +1524,10 @@
         <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1672,7 +1541,7 @@
         <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -1700,7 +1569,7 @@
         <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1742,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1756,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1784,7 +1653,7 @@
         <v>29</v>
       </c>
       <c r="D63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1798,7 +1667,7 @@
         <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1812,7 +1681,7 @@
         <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1826,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1840,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1854,10 +1723,10 @@
         <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1871,7 +1740,7 @@
         <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1885,7 +1754,7 @@
         <v>18</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -1899,7 +1768,7 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -1913,7 +1782,7 @@
         <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -1927,7 +1796,7 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1941,7 +1810,7 @@
         <v>19</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -1963,7 +1832,7 @@
         <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -1977,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -1991,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2005,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2019,7 +1888,7 @@
         <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2033,7 +1902,7 @@
         <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2047,7 +1916,7 @@
         <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2061,7 +1930,7 @@
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2075,7 +1944,7 @@
         <v>6</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,7 +1958,7 @@
         <v>12</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2103,7 +1972,7 @@
         <v>16</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2117,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2000,7 @@
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2014,7 @@
         <v>26</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2159,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2173,7 +2042,7 @@
         <v>30</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2187,7 +2056,7 @@
         <v>28</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2201,7 +2070,7 @@
         <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2215,7 +2084,7 @@
         <v>31</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2229,7 +2098,7 @@
         <v>51</v>
       </c>
       <c r="D95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2243,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,7 +2126,7 @@
         <v>25</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2271,7 +2140,7 @@
         <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2285,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2299,7 +2168,7 @@
         <v>45</v>
       </c>
       <c r="D100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2313,7 +2182,7 @@
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2327,7 +2196,7 @@
         <v>19</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2341,7 +2210,7 @@
         <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,7 +2224,7 @@
         <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2369,7 +2238,7 @@
         <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2383,7 +2252,7 @@
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -2397,7 +2266,7 @@
         <v>12</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2411,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -2425,7 +2294,7 @@
         <v>12</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -2439,10 +2308,10 @@
         <v>14</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -2456,7 +2325,7 @@
         <v>19</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -2470,7 +2339,7 @@
         <v>45</v>
       </c>
       <c r="D112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2484,7 +2353,7 @@
         <v>52</v>
       </c>
       <c r="D113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2498,7 +2367,7 @@
         <v>30</v>
       </c>
       <c r="D114" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -2512,7 +2381,7 @@
         <v>37</v>
       </c>
       <c r="D115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,7 +2406,7 @@
         <v>21</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -2551,10 +2420,10 @@
         <v>16</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -2568,7 +2437,7 @@
         <v>20</v>
       </c>
       <c r="D119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -2582,7 +2451,7 @@
         <v>22</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -2596,7 +2465,7 @@
         <v>31</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -2610,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2624,7 +2493,7 @@
         <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2638,7 +2507,7 @@
         <v>93</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2652,7 +2521,7 @@
         <v>94</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2666,7 +2535,7 @@
         <v>67</v>
       </c>
       <c r="D126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,7 +2549,7 @@
         <v>55</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2694,7 +2563,7 @@
         <v>50</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -2708,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -2722,7 +2591,7 @@
         <v>45</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -2736,10 +2605,10 @@
         <v>44</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,10 +2622,10 @@
         <v>44</v>
       </c>
       <c r="D132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,7 +2639,7 @@
         <v>42</v>
       </c>
       <c r="D133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -2784,7 +2653,7 @@
         <v>40</v>
       </c>
       <c r="D134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -2798,7 +2667,7 @@
         <v>74</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,7 +2681,7 @@
         <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -2826,10 +2695,10 @@
         <v>17</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -2843,7 +2712,7 @@
         <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,7 +2726,7 @@
         <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -2871,10 +2740,10 @@
         <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,7 +2757,7 @@
         <v>67</v>
       </c>
       <c r="D141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -2902,7 +2771,7 @@
         <v>58</v>
       </c>
       <c r="D142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -2916,7 +2785,7 @@
         <v>110</v>
       </c>
       <c r="D143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,10 +2799,10 @@
         <v>100</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -2947,7 +2816,7 @@
         <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -2961,7 +2830,7 @@
         <v>45</v>
       </c>
       <c r="D146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -2975,7 +2844,7 @@
         <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -2989,10 +2858,10 @@
         <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3006,7 +2875,7 @@
         <v>12</v>
       </c>
       <c r="D149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3020,10 +2889,10 @@
         <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3037,7 +2906,7 @@
         <v>15</v>
       </c>
       <c r="D151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3051,7 +2920,7 @@
         <v>12</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3065,7 +2934,7 @@
         <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,7 +2948,7 @@
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3093,7 +2962,7 @@
         <v>13</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3107,7 +2976,7 @@
         <v>11</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3135,7 +3004,7 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3149,10 +3018,10 @@
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F159" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3166,10 +3035,10 @@
         <v>12</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F160" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3191,10 +3060,10 @@
         <v>1900</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F162" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,10 +3077,10 @@
         <v>14</v>
       </c>
       <c r="D163" t="s">
+        <v>57</v>
+      </c>
+      <c r="F163" t="s">
         <v>58</v>
-      </c>
-      <c r="F163" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3225,10 +3094,10 @@
         <v>20</v>
       </c>
       <c r="D164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3242,10 +3111,10 @@
         <v>22</v>
       </c>
       <c r="D165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3259,10 +3128,10 @@
         <v>21</v>
       </c>
       <c r="D166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3276,10 +3145,10 @@
         <v>20</v>
       </c>
       <c r="D167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3293,10 +3162,10 @@
         <v>28</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3310,10 +3179,10 @@
         <v>26</v>
       </c>
       <c r="D169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3327,13 +3196,13 @@
         <v>25</v>
       </c>
       <c r="D170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E170">
         <v>3191</v>
       </c>
       <c r="F170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3347,13 +3216,13 @@
         <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171">
         <v>10133</v>
       </c>
       <c r="F171" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -3367,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="D172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -3381,7 +3250,7 @@
         <v>21</v>
       </c>
       <c r="D173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3395,7 +3264,7 @@
         <v>18</v>
       </c>
       <c r="D174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -3409,13 +3278,13 @@
         <v>32</v>
       </c>
       <c r="D175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E175">
         <v>6943</v>
       </c>
       <c r="F175" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -3429,10 +3298,54 @@
         <v>30</v>
       </c>
       <c r="D176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A177" s="15">
+        <v>41946</v>
+      </c>
+      <c r="B177" s="16">
+        <v>1000</v>
+      </c>
+      <c r="C177" s="17">
+        <v>9</v>
+      </c>
+      <c r="D177" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="17"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="17"/>
+      <c r="L177" s="17"/>
+      <c r="M177" s="17"/>
+      <c r="N177" s="17"/>
+      <c r="O177" s="17"/>
+      <c r="P177" s="17"/>
+      <c r="Q177" s="17"/>
+      <c r="R177" s="17"/>
+      <c r="S177" s="17"/>
+      <c r="T177" s="17"/>
+    </row>
+    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>41946</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1830</v>
+      </c>
+      <c r="C178" s="18">
+        <v>40</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3462,23 +3375,23 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3489,22 +3402,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5867,18 +5780,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H82:H87 H1:H70 H103:H1048576">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="lessThan">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71:H81">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="lessThan">
       <formula>-2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="greaterThan">
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5940,17 +5853,17 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5961,22 +5874,22 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5984,7 +5897,7 @@
         <v>41313</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>80</v>
@@ -6132,7 +6045,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -6268,7 +6181,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6469,7 +6382,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -6882,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6899,10 +6812,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" t="s">
         <v>50</v>
-      </c>
-      <c r="I44" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6968,19 +6881,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2"/>
     </row>
@@ -6992,16 +6905,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7048,12 +6961,12 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7100,7 +7013,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -7133,7 +7046,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FieldNotebook-dataonly.xlsx
+++ b/Data/FieldNotebook-dataonly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7965"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LBJstage" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="69">
   <si>
     <t>LBJ Bridge Staff Gauge</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>RefGageHeight(cm)</t>
+  </si>
+  <si>
+    <t>Lots of vegetation</t>
   </si>
 </sst>
 </file>
@@ -883,13 +886,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T178"/>
+  <dimension ref="A1:T214"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B162" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D179" sqref="D179"/>
+      <selection pane="bottomRight" activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,6 +3351,444 @@
         <v>12</v>
       </c>
     </row>
+    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>41956</v>
+      </c>
+      <c r="B179" s="2">
+        <v>1730</v>
+      </c>
+      <c r="C179" s="18">
+        <v>9</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B180" s="2">
+        <v>930</v>
+      </c>
+      <c r="C180" s="18">
+        <v>10</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C181" s="18">
+        <v>13</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C182" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B183" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C183" s="18">
+        <v>25</v>
+      </c>
+      <c r="D183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B184" s="2">
+        <v>1530</v>
+      </c>
+      <c r="C184" s="18">
+        <v>25</v>
+      </c>
+      <c r="D184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>41984</v>
+      </c>
+      <c r="B185" s="2">
+        <v>930</v>
+      </c>
+      <c r="C185" s="18">
+        <v>12</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B186" s="2">
+        <v>845</v>
+      </c>
+      <c r="C186" s="18">
+        <v>8</v>
+      </c>
+      <c r="D186" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B187" s="2">
+        <v>930</v>
+      </c>
+      <c r="C187" s="18">
+        <v>8</v>
+      </c>
+      <c r="D187" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B188" s="2">
+        <v>1115</v>
+      </c>
+      <c r="C188" s="18">
+        <v>10</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B189" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C189" s="18">
+        <v>12</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B190" s="2">
+        <v>1530</v>
+      </c>
+      <c r="C190" s="18">
+        <v>12</v>
+      </c>
+      <c r="D190" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1130</v>
+      </c>
+      <c r="C191" s="18">
+        <v>22</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B192" s="2">
+        <v>1545</v>
+      </c>
+      <c r="C192" s="18">
+        <v>22</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B193" s="2">
+        <v>1615</v>
+      </c>
+      <c r="C193" s="18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1630</v>
+      </c>
+      <c r="C194" s="18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1700</v>
+      </c>
+      <c r="C195" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1115</v>
+      </c>
+      <c r="C196" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C197" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B198" s="2">
+        <v>930</v>
+      </c>
+      <c r="C198" s="18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1145</v>
+      </c>
+      <c r="C199" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1205</v>
+      </c>
+      <c r="C200" s="18">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>41996</v>
+      </c>
+      <c r="B201" s="2">
+        <v>730</v>
+      </c>
+      <c r="C201" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C202" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C203" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B204" s="2">
+        <v>1730</v>
+      </c>
+      <c r="C204" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C205" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1730</v>
+      </c>
+      <c r="C206" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>42009</v>
+      </c>
+      <c r="B207" s="2">
+        <v>1815</v>
+      </c>
+      <c r="C207" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>42009</v>
+      </c>
+      <c r="B208" s="2">
+        <v>1845</v>
+      </c>
+      <c r="C208" s="18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>42010</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1115</v>
+      </c>
+      <c r="C209" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>42010</v>
+      </c>
+      <c r="B210" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C210" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C211" s="18">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B212" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C212" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B213" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C213" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>42014</v>
+      </c>
+      <c r="B214" s="2">
+        <v>900</v>
+      </c>
+      <c r="C214" s="18">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3356,13 +3797,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B86" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L78" sqref="L78"/>
+      <selection pane="bottomRight" activeCell="F126" sqref="F126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5776,6 +6217,307 @@
       <c r="H102">
         <f t="shared" si="9"/>
         <v>-1.4259999999999984</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>41946</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>41946</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1800</v>
+      </c>
+      <c r="E104">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>41947</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1300</v>
+      </c>
+      <c r="E105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>41956</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1700</v>
+      </c>
+      <c r="E106">
+        <v>83</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E107">
+        <v>160</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1030</v>
+      </c>
+      <c r="E108">
+        <v>30</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1355</v>
+      </c>
+      <c r="E109">
+        <v>150</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1030</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>41984</v>
+      </c>
+      <c r="B111" s="2">
+        <v>930</v>
+      </c>
+      <c r="E111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>41989</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1240</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B113" s="2">
+        <v>900</v>
+      </c>
+      <c r="E113">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B114" s="2">
+        <v>1115</v>
+      </c>
+      <c r="E114">
+        <v>67</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1600</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1300</v>
+      </c>
+      <c r="E116">
+        <v>160</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B117" s="2">
+        <v>1120</v>
+      </c>
+      <c r="E117">
+        <v>31</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>42006</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E118">
+        <v>72</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>42009</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1840</v>
+      </c>
+      <c r="E119">
+        <v>80</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>42010</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1100</v>
+      </c>
+      <c r="E120">
+        <v>9</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1030</v>
+      </c>
+      <c r="E121">
+        <v>17</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1050</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B123" s="2">
+        <v>1420</v>
+      </c>
+      <c r="E123">
+        <v>41</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B124" s="2">
+        <v>1530</v>
+      </c>
+      <c r="E124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1745</v>
+      </c>
+      <c r="E125">
+        <v>30</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
